--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_dampingfactor.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.02438346130980849</t>
-  </si>
-  <si>
-    <t>0.0378947162552469</t>
-  </si>
-  <si>
-    <t>0.05987187856712581</t>
-  </si>
-  <si>
-    <t>0.0930503060721819</t>
-  </si>
-  <si>
-    <t>0.1470166043721901</t>
-  </si>
-  <si>
-    <t>0.2323352802612267</t>
-  </si>
-  <si>
-    <t>0.3553765406691912</t>
-  </si>
-  <si>
-    <t>0.5617092639386644</t>
-  </si>
-  <si>
-    <t>0.8734924771691114</t>
-  </si>
-  <si>
-    <t>1.4036173549056323</t>
-  </si>
-  <si>
-    <t>2.1475334664986723</t>
-  </si>
-  <si>
-    <t>3.3953174832978483</t>
-  </si>
-  <si>
-    <t>5.36826452349454</t>
-  </si>
-  <si>
-    <t>8.487904692924454</t>
-  </si>
-  <si>
-    <t>13.642109641949656</t>
-  </si>
-  <si>
-    <t>21.220066299777958</t>
-  </si>
-  <si>
-    <t>33.549924099010155</t>
-  </si>
-  <si>
-    <t>52.18397287491521</t>
-  </si>
-  <si>
-    <t>83.86928376151626</t>
-  </si>
-  <si>
-    <t>128.33023665203046</t>
-  </si>
-  <si>
-    <t>199.64283627865584</t>
-  </si>
-  <si>
-    <t>320.7594056479815</t>
-  </si>
-  <si>
-    <t>490.70848079927424</t>
-  </si>
-  <si>
-    <t>0.5962359340135355</t>
-  </si>
-  <si>
-    <t>0.674594647448138</t>
-  </si>
-  <si>
-    <t>0.7394143968035884</t>
-  </si>
-  <si>
-    <t>0.8314886254517228</t>
-  </si>
-  <si>
-    <t>0.9092958282145939</t>
-  </si>
-  <si>
-    <t>0.9432855966526545</t>
-  </si>
-  <si>
-    <t>0.965171425624697</t>
-  </si>
-  <si>
-    <t>0.962960184309524</t>
-  </si>
-  <si>
-    <t>0.9479850196664957</t>
-  </si>
-  <si>
-    <t>0.9134766470795013</t>
-  </si>
-  <si>
-    <t>0.8785435999746083</t>
-  </si>
-  <si>
-    <t>0.8238948941095201</t>
-  </si>
-  <si>
-    <t>0.7673472263758208</t>
-  </si>
-  <si>
-    <t>0.7097798534352805</t>
-  </si>
-  <si>
-    <t>0.651779972703032</t>
-  </si>
-  <si>
-    <t>0.6031131156653865</t>
-  </si>
-  <si>
-    <t>0.5643014156977157</t>
-  </si>
-  <si>
-    <t>0.5275838160785824</t>
-  </si>
-  <si>
-    <t>0.488377049766419</t>
-  </si>
-  <si>
-    <t>0.46116051440566685</t>
-  </si>
-  <si>
-    <t>0.4135577501802218</t>
-  </si>
-  <si>
-    <t>0.41213735171280874</t>
-  </si>
-  <si>
-    <t>0.406317941278901</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -530,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.02438346130980849</v>
+      </c>
+      <c r="B2">
+        <v>0.5962359340135355</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.0378947162552469</v>
+      </c>
+      <c r="B3">
+        <v>0.674594647448138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.05987187856712581</v>
+      </c>
+      <c r="B4">
+        <v>0.7394143968035884</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.0930503060721819</v>
+      </c>
+      <c r="B5">
+        <v>0.8314886254517228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.1470166043721901</v>
+      </c>
+      <c r="B6">
+        <v>0.9092958282145939</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.2323352802612267</v>
+      </c>
+      <c r="B7">
+        <v>0.9432855966526545</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.3553765406691912</v>
+      </c>
+      <c r="B8">
+        <v>0.965171425624697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.5617092639386644</v>
+      </c>
+      <c r="B9">
+        <v>0.962960184309524</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.8734924771691114</v>
+      </c>
+      <c r="B10">
+        <v>0.9479850196664957</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>1.403617354905632</v>
+      </c>
+      <c r="B11">
+        <v>0.9134766470795013</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>2.147533466498672</v>
+      </c>
+      <c r="B12">
+        <v>0.8785435999746083</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>3.395317483297848</v>
+      </c>
+      <c r="B13">
+        <v>0.8238948941095201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>5.36826452349454</v>
+      </c>
+      <c r="B14">
+        <v>0.7673472263758208</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>8.487904692924454</v>
+      </c>
+      <c r="B15">
+        <v>0.7097798534352805</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>13.64210964194966</v>
+      </c>
+      <c r="B16">
+        <v>0.651779972703032</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>21.22006629977796</v>
+      </c>
+      <c r="B17">
+        <v>0.6031131156653865</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>33.54992409901016</v>
+      </c>
+      <c r="B18">
+        <v>0.5643014156977157</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>52.18397287491521</v>
+      </c>
+      <c r="B19">
+        <v>0.5275838160785824</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="A20">
+        <v>83.86928376151626</v>
+      </c>
+      <c r="B20">
+        <v>0.488377049766419</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="A21">
+        <v>128.3302366520305</v>
+      </c>
+      <c r="B21">
+        <v>0.4611605144056669</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="A22">
+        <v>199.6428362786558</v>
+      </c>
+      <c r="B22">
+        <v>0.4135577501802218</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="A23">
+        <v>320.7594056479815</v>
+      </c>
+      <c r="B23">
+        <v>0.4121373517128087</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="A24">
+        <v>490.7084807992742</v>
+      </c>
+      <c r="B24">
+        <v>0.406317941278901</v>
       </c>
     </row>
   </sheetData>
